--- a/tests/pandas/operators/date_proximity/basic/dropna_false_expected_result.xlsx
+++ b/tests/pandas/operators/date_proximity/basic/dropna_false_expected_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/lavalinker/tests/pandas/operators/date_proximity/basic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/date_proximity/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CB9032-EDC8-AA47-80B9-5E2245450C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA54A291-B673-5142-8EC6-EE141548E09A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="8820" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>PIDN_link</t>
-  </si>
-  <si>
-    <t>DCDate_link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>PIDN</t>
   </si>
@@ -49,18 +43,6 @@
     <t>Col6</t>
   </si>
   <si>
-    <t>_merge</t>
-  </si>
-  <si>
-    <t>_diff_days</t>
-  </si>
-  <si>
-    <t>_abs_diff_days</t>
-  </si>
-  <si>
-    <t>_duplicates</t>
-  </si>
-  <si>
     <t>FAQ</t>
   </si>
   <si>
@@ -71,6 +53,21 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>PIDN_x</t>
+  </si>
+  <si>
+    <t>DCDate_x</t>
+  </si>
+  <si>
+    <t>_mp_merge</t>
+  </si>
+  <si>
+    <t>_mp_diff_days</t>
+  </si>
+  <si>
+    <t>_mp_abs_diff_days</t>
   </si>
 </sst>
 </file>
@@ -437,78 +434,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>36892</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,7 +512,7 @@
         <v>37302</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -531,13 +521,13 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <v>13</v>
@@ -545,22 +535,16 @@
       <c r="L3">
         <v>13</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>37683</v>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -574,7 +558,7 @@
         <v>38078</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>23</v>
@@ -583,13 +567,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>-3</v>
@@ -597,11 +581,8 @@
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -615,7 +596,7 @@
         <v>38078</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>23</v>
@@ -624,13 +605,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>-4</v>
@@ -638,41 +619,29 @@
       <c r="L6">
         <v>4</v>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>38477</v>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>38478</v>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -686,7 +655,7 @@
         <v>38883</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>26</v>
@@ -695,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -709,38 +678,26 @@
       <c r="L10">
         <v>9</v>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>39270</v>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>39668</v>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
